--- a/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&4.xlsx
+++ b/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&4.xlsx
@@ -881,9 +881,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -979,7 +978,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -990,10 +989,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1108,10 +1103,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.116507281705107"/>
-          <c:y val="0.166574063784865"/>
-          <c:w val="0.828801800112507"/>
-          <c:h val="0.635181686854095"/>
+          <c:x val="0.116530319115718"/>
+          <c:y val="0.166555481432066"/>
+          <c:w val="0.828639230625117"/>
+          <c:h val="0.634978874805426"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1122,7 +1117,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$M$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1149,6 +1144,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1160,6 +1156,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1168,6 +1165,20 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0084d1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$K$2:$K$285</c:f>
@@ -2892,11 +2903,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="30147068"/>
-        <c:axId val="58518997"/>
+        <c:axId val="71332367"/>
+        <c:axId val="94465689"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30147068"/>
+        <c:axId val="71332367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2931,7 +2942,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2953,12 +2964,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58518997"/>
+        <c:crossAx val="94465689"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58518997"/>
+        <c:axId val="94465689"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2993,7 +3004,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3015,7 +3026,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30147068"/>
+        <c:crossAx val="71332367"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3035,7 +3046,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -3082,10 +3093,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.116440497780001"/>
-          <c:y val="0.166611092586418"/>
-          <c:w val="0.828778688012007"/>
-          <c:h val="0.635100589085251"/>
+          <c:x val="0.116467869855742"/>
+          <c:y val="0.166666666666667"/>
+          <c:w val="0.828639230625117"/>
+          <c:h val="0.634978874805426"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3096,7 +3107,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$M$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3135,6 +3146,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3143,6 +3155,20 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0084d1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$L$2:$L$285</c:f>
@@ -3155,9 +3181,6 @@
                 <c:pt idx="1">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3185,9 +3208,6 @@
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>0.875</c:v>
                 </c:pt>
@@ -3200,9 +3220,6 @@
                 <c:pt idx="16">
                   <c:v>0.888888888888889</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3218,15 +3235,6 @@
                 <c:pt idx="22">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3236,9 +3244,6 @@
                 <c:pt idx="28">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3251,15 +3256,9 @@
                 <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="35">
                   <c:v>0.833333333333333</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="37">
                   <c:v>0.7</c:v>
                 </c:pt>
@@ -3269,12 +3268,6 @@
                 <c:pt idx="39">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="42">
                   <c:v>0.954545454545455</c:v>
                 </c:pt>
@@ -3290,24 +3283,15 @@
                 <c:pt idx="46">
                   <c:v>0.833333333333333</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="48">
                   <c:v>0.980769230769231</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.3125</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="51">
                   <c:v>0.8671875</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="53">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3386,31 +3370,19 @@
                 <c:pt idx="86">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="88">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.954545454545455</c:v>
                 </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="91">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="96">
@@ -3419,33 +3391,15 @@
                 <c:pt idx="97">
                   <c:v>0.840909090909091</c:v>
                 </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="99">
                   <c:v>0.954545454545455</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0.868421052631579</c:v>
                 </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="105">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="107">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3464,15 +3418,9 @@
                 <c:pt idx="112">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="113">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="114">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="115">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="116">
                   <c:v>0.928571428571429</c:v>
                 </c:pt>
@@ -3491,9 +3439,6 @@
                 <c:pt idx="121">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="122">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="123">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3527,16 +3472,7 @@
                 <c:pt idx="133">
                   <c:v>0.975</c:v>
                 </c:pt>
-                <c:pt idx="134">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="135">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="137">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="138">
@@ -3545,9 +3481,6 @@
                 <c:pt idx="139">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="140">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="141">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3563,13 +3496,7 @@
                 <c:pt idx="145">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="146">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="147">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="148">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="149">
@@ -3578,72 +3505,21 @@
                 <c:pt idx="150">
                   <c:v>0.975</c:v>
                 </c:pt>
-                <c:pt idx="151">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="155">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="156">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="157">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="158">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="159">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="161">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="170">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>0.932432432432432</c:v>
                 </c:pt>
-                <c:pt idx="172">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="173">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3653,9 +3529,6 @@
                 <c:pt idx="175">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="176">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="177">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3680,25 +3553,13 @@
                 <c:pt idx="184">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="185">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="186">
                   <c:v>0.777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>0.948717948717949</c:v>
                 </c:pt>
-                <c:pt idx="188">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="189">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="191">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="192">
@@ -3713,12 +3574,6 @@
                 <c:pt idx="195">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="196">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="198">
                   <c:v>0.3125</c:v>
                 </c:pt>
@@ -3731,13 +3586,7 @@
                 <c:pt idx="201">
                   <c:v>0.486577181208054</c:v>
                 </c:pt>
-                <c:pt idx="202">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="203">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="204">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="205">
@@ -3752,9 +3601,6 @@
                 <c:pt idx="208">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="209">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="210">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -3773,9 +3619,6 @@
                 <c:pt idx="215">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="216">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="217">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3800,12 +3643,6 @@
                 <c:pt idx="225">
                   <c:v>0.931818181818182</c:v>
                 </c:pt>
-                <c:pt idx="226">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="228">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3821,28 +3658,13 @@
                 <c:pt idx="232">
                   <c:v>0.928571428571429</c:v>
                 </c:pt>
-                <c:pt idx="233">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="234">
                   <c:v>0.946428571428571</c:v>
                 </c:pt>
-                <c:pt idx="235">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="236">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="237">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="239">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="240">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="241">
@@ -3851,9 +3673,6 @@
                 <c:pt idx="242">
                   <c:v>0.942622950819672</c:v>
                 </c:pt>
-                <c:pt idx="243">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="244">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -3863,25 +3682,10 @@
                 <c:pt idx="246">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="247">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="249">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="250">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="251">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="253">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="254">
@@ -3893,12 +3697,6 @@
                 <c:pt idx="256">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="257">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="259">
                   <c:v>0.916666666666667</c:v>
                 </c:pt>
@@ -3908,9 +3706,6 @@
                 <c:pt idx="261">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="262">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="263">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3926,44 +3721,17 @@
                 <c:pt idx="267">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="268">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="269">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="270">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="271">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="277">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>0.8</c:v>
@@ -4840,11 +4608,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="88307133"/>
-        <c:axId val="95291961"/>
+        <c:axId val="90380715"/>
+        <c:axId val="51235077"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88307133"/>
+        <c:axId val="90380715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4879,7 +4647,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4901,12 +4669,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95291961"/>
+        <c:crossAx val="51235077"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95291961"/>
+        <c:axId val="51235077"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4941,7 +4709,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4963,7 +4731,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88307133"/>
+        <c:crossAx val="90380715"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4983,7 +4751,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -4997,13 +4765,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>326160</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>216720</xdr:colOff>
+      <xdr:colOff>215640</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5011,8 +4779,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21079800" y="1038240"/>
-        <a:ext cx="5756400" cy="3238560"/>
+        <a:off x="21079800" y="1038960"/>
+        <a:ext cx="5764320" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5027,13 +4795,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>360000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>250560</xdr:colOff>
+      <xdr:colOff>249480</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5041,8 +4809,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21113640" y="4550040"/>
-        <a:ext cx="5756400" cy="3238560"/>
+        <a:off x="21113640" y="4550760"/>
+        <a:ext cx="5764320" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5062,11 +4830,11 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
@@ -5080,7 +4848,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5225,11 +4993,10 @@
       </c>
       <c r="N3" s="0" t="n">
         <f aca="false">PEARSON(K2:K285,M2:M285)</f>
-        <v>-0.0804503543866066</v>
+        <v>-0.0804503543866067</v>
       </c>
       <c r="O3" s="0" t="n">
-        <f aca="false">PEARSON(K2:K285,M2:M285)</f>
-        <v>-0.0804503543866066</v>
+        <v>-0.264964262554222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5270,8 +5037,9 @@
         <f aca="false">C4:C287/D4:D287</f>
         <v>0.916666666666667</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>1</v>
+      <c r="L4" s="0" t="e">
+        <f aca="false">F4/G4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">SUM(H4,I4)</f>
@@ -5739,8 +5507,9 @@
         <f aca="false">C14:C297/D14:D297</f>
         <v>1</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>1</v>
+      <c r="L14" s="0" t="e">
+        <f aca="false">F14/G14</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M14" s="0" t="n">
         <f aca="false">SUM(H14,I14)</f>
@@ -5973,8 +5742,9 @@
         <f aca="false">C19:C302/D19:D302</f>
         <v>1</v>
       </c>
-      <c r="L19" s="0" t="n">
-        <v>1</v>
+      <c r="L19" s="0" t="e">
+        <f aca="false">F19/G19</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M19" s="0" t="n">
         <f aca="false">SUM(H19,I19)</f>
@@ -6254,8 +6024,9 @@
         <f aca="false">C25:C308/D25:D308</f>
         <v>1</v>
       </c>
-      <c r="L25" s="0" t="n">
-        <v>1</v>
+      <c r="L25" s="0" t="e">
+        <f aca="false">F25/G25</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M25" s="0" t="n">
         <f aca="false">SUM(H25,I25)</f>
@@ -6300,8 +6071,9 @@
         <f aca="false">C26:C309/D26:D309</f>
         <v>1</v>
       </c>
-      <c r="L26" s="0" t="n">
-        <v>1</v>
+      <c r="L26" s="0" t="e">
+        <f aca="false">F26/G26</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M26" s="0" t="n">
         <f aca="false">SUM(H26,I26)</f>
@@ -6346,8 +6118,9 @@
         <f aca="false">C27:C310/D27:D310</f>
         <v>1</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <v>1</v>
+      <c r="L27" s="0" t="e">
+        <f aca="false">F27/G27</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M27" s="0" t="n">
         <f aca="false">SUM(H27,I27)</f>
@@ -6533,8 +6306,9 @@
         <f aca="false">C31:C314/D31:D314</f>
         <v>1</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <v>1</v>
+      <c r="L31" s="0" t="e">
+        <f aca="false">F31/G31</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M31" s="0" t="n">
         <f aca="false">SUM(H31,I31)</f>
@@ -6767,8 +6541,9 @@
         <f aca="false">C36:C319/D36:D319</f>
         <v>1</v>
       </c>
-      <c r="L36" s="0" t="n">
-        <v>1</v>
+      <c r="L36" s="0" t="e">
+        <f aca="false">F36/G36</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M36" s="0" t="n">
         <f aca="false">SUM(H36,I36)</f>
@@ -6860,8 +6635,9 @@
         <f aca="false">C38:C321/D38:D321</f>
         <v>1</v>
       </c>
-      <c r="L38" s="0" t="n">
-        <v>1</v>
+      <c r="L38" s="0" t="e">
+        <f aca="false">F38/G38</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M38" s="0" t="n">
         <f aca="false">SUM(H38,I38)</f>
@@ -7047,8 +6823,9 @@
         <f aca="false">C42:C325/D42:D325</f>
         <v>1</v>
       </c>
-      <c r="L42" s="0" t="n">
-        <v>1</v>
+      <c r="L42" s="0" t="e">
+        <f aca="false">F42/G42</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M42" s="0" t="n">
         <f aca="false">SUM(H42,I42)</f>
@@ -7093,8 +6870,9 @@
         <f aca="false">C43:C326/D43:D326</f>
         <v>1</v>
       </c>
-      <c r="L43" s="0" t="n">
-        <v>1</v>
+      <c r="L43" s="0" t="e">
+        <f aca="false">F43/G43</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M43" s="0" t="n">
         <f aca="false">SUM(H43,I43)</f>
@@ -7374,8 +7152,9 @@
         <f aca="false">C49:C332/D49:D332</f>
         <v>1</v>
       </c>
-      <c r="L49" s="0" t="n">
-        <v>1</v>
+      <c r="L49" s="0" t="e">
+        <f aca="false">F49/G49</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M49" s="0" t="n">
         <f aca="false">SUM(H49,I49)</f>
@@ -7514,8 +7293,9 @@
         <f aca="false">C52:C335/D52:D335</f>
         <v>1</v>
       </c>
-      <c r="L52" s="0" t="n">
-        <v>1</v>
+      <c r="L52" s="0" t="e">
+        <f aca="false">F52/G52</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M52" s="0" t="n">
         <f aca="false">SUM(H52,I52)</f>
@@ -7607,8 +7387,9 @@
         <f aca="false">C54:C337/D54:D337</f>
         <v>1</v>
       </c>
-      <c r="L54" s="0" t="n">
-        <v>1</v>
+      <c r="L54" s="0" t="e">
+        <f aca="false">F54/G54</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M54" s="0" t="n">
         <f aca="false">SUM(H54,I54)</f>
@@ -9251,8 +9032,9 @@
         <f aca="false">C89:C372/D89:D372</f>
         <v>1</v>
       </c>
-      <c r="L89" s="0" t="n">
-        <v>1</v>
+      <c r="L89" s="0" t="e">
+        <f aca="false">F89/G89</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M89" s="0" t="n">
         <f aca="false">SUM(H89,I89)</f>
@@ -9391,8 +9173,9 @@
         <f aca="false">C92:C375/D92:D375</f>
         <v>1</v>
       </c>
-      <c r="L92" s="0" t="n">
-        <v>1</v>
+      <c r="L92" s="0" t="e">
+        <f aca="false">F92/G92</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M92" s="0" t="n">
         <f aca="false">SUM(H92,I92)</f>
@@ -9531,8 +9314,9 @@
         <f aca="false">C95:C378/D95:D378</f>
         <v>1</v>
       </c>
-      <c r="L95" s="0" t="n">
-        <v>1</v>
+      <c r="L95" s="0" t="e">
+        <f aca="false">F95/G95</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M95" s="0" t="n">
         <f aca="false">SUM(H95,I95)</f>
@@ -9624,8 +9408,9 @@
         <f aca="false">C97:C380/D97:D380</f>
         <v>1</v>
       </c>
-      <c r="L97" s="0" t="n">
-        <v>1</v>
+      <c r="L97" s="0" t="e">
+        <f aca="false">F97/G97</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M97" s="0" t="n">
         <f aca="false">SUM(H97,I97)</f>
@@ -9764,8 +9549,9 @@
         <f aca="false">C100:C383/D100:D383</f>
         <v>1</v>
       </c>
-      <c r="L100" s="0" t="n">
-        <v>1</v>
+      <c r="L100" s="0" t="e">
+        <f aca="false">F100/G100</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M100" s="0" t="n">
         <f aca="false">SUM(H100,I100)</f>
@@ -9904,8 +9690,9 @@
         <f aca="false">C103:C386/D103:D386</f>
         <v>1</v>
       </c>
-      <c r="L103" s="0" t="n">
-        <v>1</v>
+      <c r="L103" s="0" t="e">
+        <f aca="false">F103/G103</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M103" s="0" t="n">
         <f aca="false">SUM(H103,I103)</f>
@@ -9950,8 +9737,9 @@
         <f aca="false">C104:C387/D104:D387</f>
         <v>0.5</v>
       </c>
-      <c r="L104" s="0" t="n">
-        <v>1</v>
+      <c r="L104" s="0" t="e">
+        <f aca="false">F104/G104</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M104" s="0" t="n">
         <f aca="false">SUM(H104,I104)</f>
@@ -9996,8 +9784,9 @@
         <f aca="false">C105:C388/D105:D388</f>
         <v>1</v>
       </c>
-      <c r="L105" s="0" t="n">
-        <v>1</v>
+      <c r="L105" s="0" t="e">
+        <f aca="false">F105/G105</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M105" s="0" t="n">
         <f aca="false">SUM(H105,I105)</f>
@@ -10042,8 +9831,9 @@
         <f aca="false">C106:C389/D106:D389</f>
         <v>1</v>
       </c>
-      <c r="L106" s="0" t="n">
-        <v>1</v>
+      <c r="L106" s="0" t="e">
+        <f aca="false">F106/G106</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M106" s="0" t="n">
         <f aca="false">SUM(H106,I106)</f>
@@ -10135,8 +9925,9 @@
         <f aca="false">C108:C391/D108:D391</f>
         <v>1</v>
       </c>
-      <c r="L108" s="0" t="n">
-        <v>1</v>
+      <c r="L108" s="0" t="e">
+        <f aca="false">F108/G108</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M108" s="0" t="n">
         <f aca="false">SUM(H108,I108)</f>
@@ -10463,8 +10254,9 @@
         <f aca="false">C115:C398/D115:D398</f>
         <v>1</v>
       </c>
-      <c r="L115" s="0" t="n">
-        <v>1</v>
+      <c r="L115" s="0" t="e">
+        <f aca="false">F115/G115</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M115" s="0" t="n">
         <f aca="false">SUM(H115,I115)</f>
@@ -10556,8 +10348,9 @@
         <f aca="false">C117:C400/D117:D400</f>
         <v>1</v>
       </c>
-      <c r="L117" s="0" t="n">
-        <v>1</v>
+      <c r="L117" s="0" t="e">
+        <f aca="false">F117/G117</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M117" s="0" t="n">
         <f aca="false">SUM(H117,I117)</f>
@@ -10884,8 +10677,9 @@
         <f aca="false">C124:C407/D124:D407</f>
         <v>1</v>
       </c>
-      <c r="L124" s="0" t="n">
-        <v>1</v>
+      <c r="L124" s="0" t="e">
+        <f aca="false">F124/G124</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M124" s="0" t="n">
         <f aca="false">SUM(H124,I124)</f>
@@ -11447,8 +11241,9 @@
         <f aca="false">C136:C419/D136:D419</f>
         <v>1</v>
       </c>
-      <c r="L136" s="0" t="n">
-        <v>1</v>
+      <c r="L136" s="0" t="e">
+        <f aca="false">F136/G136</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M136" s="0" t="n">
         <f aca="false">SUM(H136,I136)</f>
@@ -11540,8 +11335,9 @@
         <f aca="false">C138:C421/D138:D421</f>
         <v>1</v>
       </c>
-      <c r="L138" s="0" t="n">
-        <v>1</v>
+      <c r="L138" s="0" t="e">
+        <f aca="false">F138/G138</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M138" s="0" t="n">
         <f aca="false">SUM(H138,I138)</f>
@@ -11586,8 +11382,9 @@
         <f aca="false">C139:C422/D139:D422</f>
         <v>1</v>
       </c>
-      <c r="L139" s="0" t="n">
-        <v>1</v>
+      <c r="L139" s="0" t="e">
+        <f aca="false">F139/G139</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M139" s="0" t="n">
         <f aca="false">SUM(H139,I139)</f>
@@ -11632,7 +11429,7 @@
         <f aca="false">C140:C423/D140:D423</f>
         <v>1</v>
       </c>
-      <c r="L140" s="3" t="n">
+      <c r="L140" s="0" t="n">
         <f aca="false">F140/G140</f>
         <v>0.916666666666667</v>
       </c>
@@ -11726,8 +11523,9 @@
         <f aca="false">C142:C425/D142:D425</f>
         <v>1</v>
       </c>
-      <c r="L142" s="0" t="n">
-        <v>1</v>
+      <c r="L142" s="0" t="e">
+        <f aca="false">F142/G142</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M142" s="0" t="n">
         <f aca="false">SUM(H142,I142)</f>
@@ -12007,8 +11805,9 @@
         <f aca="false">C148:C431/D148:D431</f>
         <v>1</v>
       </c>
-      <c r="L148" s="0" t="n">
-        <v>1</v>
+      <c r="L148" s="0" t="e">
+        <f aca="false">F148/G148</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M148" s="0" t="n">
         <f aca="false">SUM(H148,I148)</f>
@@ -12100,8 +11899,9 @@
         <f aca="false">C150:C433/D150:D433</f>
         <v>0.857142857142857</v>
       </c>
-      <c r="L150" s="0" t="n">
-        <v>1</v>
+      <c r="L150" s="0" t="e">
+        <f aca="false">F150/G150</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M150" s="0" t="n">
         <f aca="false">SUM(H150,I150)</f>
@@ -12240,8 +12040,9 @@
         <f aca="false">C153:C436/D153:D436</f>
         <v>0</v>
       </c>
-      <c r="L153" s="0" t="n">
-        <v>1</v>
+      <c r="L153" s="0" t="e">
+        <f aca="false">F153/G153</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M153" s="0" t="n">
         <f aca="false">SUM(H153,I153)</f>
@@ -12286,8 +12087,9 @@
         <f aca="false">C154:C437/D154:D437</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="L154" s="0" t="n">
-        <v>1</v>
+      <c r="L154" s="0" t="e">
+        <f aca="false">F154/G154</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M154" s="0" t="n">
         <f aca="false">SUM(H154,I154)</f>
@@ -12332,8 +12134,9 @@
         <f aca="false">C155:C438/D155:D438</f>
         <v>0</v>
       </c>
-      <c r="L155" s="0" t="n">
-        <v>1</v>
+      <c r="L155" s="0" t="e">
+        <f aca="false">F155/G155</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M155" s="0" t="n">
         <f aca="false">SUM(H155,I155)</f>
@@ -12378,8 +12181,9 @@
         <f aca="false">C156:C439/D156:D439</f>
         <v>1</v>
       </c>
-      <c r="L156" s="0" t="n">
-        <v>1</v>
+      <c r="L156" s="0" t="e">
+        <f aca="false">F156/G156</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M156" s="0" t="n">
         <f aca="false">SUM(H156,I156)</f>
@@ -12518,8 +12322,9 @@
         <f aca="false">C159:C442/D159:D442</f>
         <v>1</v>
       </c>
-      <c r="L159" s="0" t="n">
-        <v>1</v>
+      <c r="L159" s="0" t="e">
+        <f aca="false">F159/G159</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M159" s="0" t="n">
         <f aca="false">SUM(H159,I159)</f>
@@ -12611,8 +12416,9 @@
         <f aca="false">C161:C444/D161:D444</f>
         <v>1</v>
       </c>
-      <c r="L161" s="0" t="n">
-        <v>1</v>
+      <c r="L161" s="0" t="e">
+        <f aca="false">F161/G161</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M161" s="0" t="n">
         <f aca="false">SUM(H161,I161)</f>
@@ -12657,8 +12463,9 @@
         <f aca="false">C162:C445/D162:D445</f>
         <v>1</v>
       </c>
-      <c r="L162" s="0" t="n">
-        <v>1</v>
+      <c r="L162" s="0" t="e">
+        <f aca="false">F162/G162</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M162" s="0" t="n">
         <f aca="false">SUM(H162,I162)</f>
@@ -12750,8 +12557,9 @@
         <f aca="false">C164:C447/D164:D447</f>
         <v>1</v>
       </c>
-      <c r="L164" s="0" t="n">
-        <v>1</v>
+      <c r="L164" s="0" t="e">
+        <f aca="false">F164/G164</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M164" s="0" t="n">
         <f aca="false">SUM(H164,I164)</f>
@@ -12796,8 +12604,9 @@
         <f aca="false">C165:C448/D165:D448</f>
         <v>1</v>
       </c>
-      <c r="L165" s="0" t="n">
-        <v>1</v>
+      <c r="L165" s="0" t="e">
+        <f aca="false">F165/G165</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M165" s="0" t="n">
         <f aca="false">SUM(H165,I165)</f>
@@ -12842,8 +12651,9 @@
         <f aca="false">C166:C449/D166:D449</f>
         <v>1</v>
       </c>
-      <c r="L166" s="0" t="n">
-        <v>1</v>
+      <c r="L166" s="0" t="e">
+        <f aca="false">F166/G166</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M166" s="0" t="n">
         <f aca="false">SUM(H166,I166)</f>
@@ -12888,8 +12698,9 @@
         <f aca="false">C167:C450/D167:D450</f>
         <v>0.6</v>
       </c>
-      <c r="L167" s="0" t="n">
-        <v>1</v>
+      <c r="L167" s="0" t="e">
+        <f aca="false">F167/G167</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M167" s="0" t="n">
         <f aca="false">SUM(H167,I167)</f>
@@ -12934,8 +12745,9 @@
         <f aca="false">C168:C451/D168:D451</f>
         <v>1</v>
       </c>
-      <c r="L168" s="0" t="n">
-        <v>1</v>
+      <c r="L168" s="0" t="e">
+        <f aca="false">F168/G168</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M168" s="0" t="n">
         <f aca="false">SUM(H168,I168)</f>
@@ -12980,8 +12792,9 @@
         <f aca="false">C169:C452/D169:D452</f>
         <v>1</v>
       </c>
-      <c r="L169" s="0" t="n">
-        <v>1</v>
+      <c r="L169" s="0" t="e">
+        <f aca="false">F169/G169</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M169" s="0" t="n">
         <f aca="false">SUM(H169,I169)</f>
@@ -13026,8 +12839,9 @@
         <f aca="false">C170:C453/D170:D453</f>
         <v>1</v>
       </c>
-      <c r="L170" s="0" t="n">
-        <v>1</v>
+      <c r="L170" s="0" t="e">
+        <f aca="false">F170/G170</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M170" s="0" t="n">
         <f aca="false">SUM(H170,I170)</f>
@@ -13072,8 +12886,9 @@
         <f aca="false">C171:C454/D171:D454</f>
         <v>1</v>
       </c>
-      <c r="L171" s="0" t="n">
-        <v>1</v>
+      <c r="L171" s="0" t="e">
+        <f aca="false">F171/G171</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M171" s="0" t="n">
         <f aca="false">SUM(H171,I171)</f>
@@ -13118,8 +12933,9 @@
         <f aca="false">C172:C455/D172:D455</f>
         <v>1</v>
       </c>
-      <c r="L172" s="0" t="n">
-        <v>1</v>
+      <c r="L172" s="0" t="e">
+        <f aca="false">F172/G172</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M172" s="0" t="n">
         <f aca="false">SUM(H172,I172)</f>
@@ -13211,8 +13027,9 @@
         <f aca="false">C174:C457/D174:D457</f>
         <v>1</v>
       </c>
-      <c r="L174" s="0" t="n">
-        <v>1</v>
+      <c r="L174" s="0" t="e">
+        <f aca="false">F174/G174</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M174" s="0" t="n">
         <f aca="false">SUM(H174,I174)</f>
@@ -13398,8 +13215,9 @@
         <f aca="false">C178:C461/D178:D461</f>
         <v>1</v>
       </c>
-      <c r="L178" s="0" t="n">
-        <v>1</v>
+      <c r="L178" s="0" t="e">
+        <f aca="false">F178/G178</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M178" s="0" t="n">
         <f aca="false">SUM(H178,I178)</f>
@@ -13820,8 +13638,9 @@
         <f aca="false">C187:C470/D187:D470</f>
         <v>0</v>
       </c>
-      <c r="L187" s="0" t="n">
-        <v>1</v>
+      <c r="L187" s="0" t="e">
+        <f aca="false">F187/G187</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M187" s="0" t="n">
         <f aca="false">SUM(H187,I187)</f>
@@ -13960,8 +13779,9 @@
         <f aca="false">C190:C473/D190:D473</f>
         <v>1</v>
       </c>
-      <c r="L190" s="0" t="n">
-        <v>1</v>
+      <c r="L190" s="0" t="e">
+        <f aca="false">F190/G190</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M190" s="0" t="n">
         <f aca="false">SUM(H190,I190)</f>
@@ -14053,8 +13873,9 @@
         <f aca="false">C192:C475/D192:D475</f>
         <v>1</v>
       </c>
-      <c r="L192" s="0" t="n">
-        <v>1</v>
+      <c r="L192" s="0" t="e">
+        <f aca="false">F192/G192</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M192" s="0" t="n">
         <f aca="false">SUM(H192,I192)</f>
@@ -14099,8 +13920,9 @@
         <f aca="false">C193:C476/D193:D476</f>
         <v>1</v>
       </c>
-      <c r="L193" s="0" t="n">
-        <v>1</v>
+      <c r="L193" s="0" t="e">
+        <f aca="false">F193/G193</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M193" s="0" t="n">
         <f aca="false">SUM(H193,I193)</f>
@@ -14333,8 +14155,9 @@
         <f aca="false">C198:C481/D198:D481</f>
         <v>1</v>
       </c>
-      <c r="L198" s="0" t="n">
-        <v>1</v>
+      <c r="L198" s="0" t="e">
+        <f aca="false">F198/G198</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M198" s="0" t="n">
         <f aca="false">SUM(H198,I198)</f>
@@ -14379,8 +14202,9 @@
         <f aca="false">C199:C482/D199:D482</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="L199" s="0" t="n">
-        <v>1</v>
+      <c r="L199" s="0" t="e">
+        <f aca="false">F199/G199</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M199" s="0" t="n">
         <f aca="false">SUM(H199,I199)</f>
@@ -14613,8 +14437,9 @@
         <f aca="false">C204:C487/D204:D487</f>
         <v>1</v>
       </c>
-      <c r="L204" s="0" t="n">
-        <v>1</v>
+      <c r="L204" s="0" t="e">
+        <f aca="false">F204/G204</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M204" s="0" t="n">
         <f aca="false">SUM(H204,I204)</f>
@@ -14706,8 +14531,9 @@
         <f aca="false">C206:C489/D206:D489</f>
         <v>1</v>
       </c>
-      <c r="L206" s="0" t="n">
-        <v>1</v>
+      <c r="L206" s="0" t="e">
+        <f aca="false">F206/G206</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M206" s="0" t="n">
         <f aca="false">SUM(H206,I206)</f>
@@ -14940,8 +14766,9 @@
         <f aca="false">C211:C494/D211:D494</f>
         <v>1</v>
       </c>
-      <c r="L211" s="0" t="n">
-        <v>1</v>
+      <c r="L211" s="0" t="e">
+        <f aca="false">F211/G211</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M211" s="0" t="n">
         <f aca="false">SUM(H211,I211)</f>
@@ -15268,8 +15095,9 @@
         <f aca="false">C218:C501/D218:D501</f>
         <v>1</v>
       </c>
-      <c r="L218" s="0" t="n">
-        <v>1</v>
+      <c r="L218" s="0" t="e">
+        <f aca="false">F218/G218</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M218" s="0" t="n">
         <f aca="false">SUM(H218,I218)</f>
@@ -15737,8 +15565,9 @@
         <f aca="false">C228:C511/D228:D511</f>
         <v>1</v>
       </c>
-      <c r="L228" s="0" t="n">
-        <v>1</v>
+      <c r="L228" s="0" t="e">
+        <f aca="false">F228/G228</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M228" s="0" t="n">
         <f aca="false">SUM(H228,I228)</f>
@@ -15783,8 +15612,9 @@
         <f aca="false">C229:C512/D229:D512</f>
         <v>1</v>
       </c>
-      <c r="L229" s="0" t="n">
-        <v>1</v>
+      <c r="L229" s="0" t="e">
+        <f aca="false">F229/G229</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M229" s="0" t="n">
         <f aca="false">SUM(H229,I229)</f>
@@ -16064,8 +15894,9 @@
         <f aca="false">C235:C518/D235:D518</f>
         <v>1</v>
       </c>
-      <c r="L235" s="0" t="n">
-        <v>1</v>
+      <c r="L235" s="0" t="e">
+        <f aca="false">F235/G235</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M235" s="0" t="n">
         <f aca="false">SUM(H235,I235)</f>
@@ -16157,8 +15988,9 @@
         <f aca="false">C237:C520/D237:D520</f>
         <v>1</v>
       </c>
-      <c r="L237" s="0" t="n">
-        <v>1</v>
+      <c r="L237" s="0" t="e">
+        <f aca="false">F237/G237</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M237" s="0" t="n">
         <f aca="false">SUM(H237,I237)</f>
@@ -16250,8 +16082,9 @@
         <f aca="false">C239:C522/D239:D522</f>
         <v>1</v>
       </c>
-      <c r="L239" s="0" t="n">
-        <v>1</v>
+      <c r="L239" s="0" t="e">
+        <f aca="false">F239/G239</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M239" s="0" t="n">
         <f aca="false">SUM(H239,I239)</f>
@@ -16296,8 +16129,9 @@
         <f aca="false">C240:C523/D240:D523</f>
         <v>1</v>
       </c>
-      <c r="L240" s="0" t="n">
-        <v>1</v>
+      <c r="L240" s="0" t="e">
+        <f aca="false">F240/G240</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M240" s="0" t="n">
         <f aca="false">SUM(H240,I240)</f>
@@ -16389,8 +16223,9 @@
         <f aca="false">C242:C525/D242:D525</f>
         <v>1</v>
       </c>
-      <c r="L242" s="0" t="n">
-        <v>1</v>
+      <c r="L242" s="0" t="e">
+        <f aca="false">F242/G242</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M242" s="0" t="n">
         <f aca="false">SUM(H242,I242)</f>
@@ -16529,8 +16364,9 @@
         <f aca="false">C245:C528/D245:D528</f>
         <v>1</v>
       </c>
-      <c r="L245" s="0" t="n">
-        <v>1</v>
+      <c r="L245" s="0" t="e">
+        <f aca="false">F245/G245</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M245" s="0" t="n">
         <f aca="false">SUM(H245,I245)</f>
@@ -16716,8 +16552,9 @@
         <f aca="false">C249:C532/D249:D532</f>
         <v>1</v>
       </c>
-      <c r="L249" s="0" t="n">
-        <v>1</v>
+      <c r="L249" s="0" t="e">
+        <f aca="false">F249/G249</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M249" s="0" t="n">
         <f aca="false">SUM(H249,I249)</f>
@@ -16762,8 +16599,9 @@
         <f aca="false">C250:C533/D250:D533</f>
         <v>0.75</v>
       </c>
-      <c r="L250" s="0" t="n">
-        <v>1</v>
+      <c r="L250" s="0" t="e">
+        <f aca="false">F250/G250</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M250" s="0" t="n">
         <f aca="false">SUM(H250,I250)</f>
@@ -16855,8 +16693,9 @@
         <f aca="false">C252:C535/D252:D535</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="L252" s="0" t="n">
-        <v>1</v>
+      <c r="L252" s="0" t="e">
+        <f aca="false">F252/G252</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M252" s="0" t="n">
         <f aca="false">SUM(H252,I252)</f>
@@ -16948,8 +16787,9 @@
         <f aca="false">C254:C537/D254:D537</f>
         <v>1</v>
       </c>
-      <c r="L254" s="0" t="n">
-        <v>1</v>
+      <c r="L254" s="0" t="e">
+        <f aca="false">F254/G254</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M254" s="0" t="n">
         <f aca="false">SUM(H254,I254)</f>
@@ -16994,8 +16834,9 @@
         <f aca="false">C255:C538/D255:D538</f>
         <v>1</v>
       </c>
-      <c r="L255" s="0" t="n">
-        <v>1</v>
+      <c r="L255" s="0" t="e">
+        <f aca="false">F255/G255</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M255" s="0" t="n">
         <f aca="false">SUM(H255,I255)</f>
@@ -17181,8 +17022,9 @@
         <f aca="false">C259:C542/D259:D542</f>
         <v>1</v>
       </c>
-      <c r="L259" s="0" t="n">
-        <v>1</v>
+      <c r="L259" s="0" t="e">
+        <f aca="false">F259/G259</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M259" s="0" t="n">
         <f aca="false">SUM(H259,I259)</f>
@@ -17227,8 +17069,9 @@
         <f aca="false">C260:C543/D260:D543</f>
         <v>1</v>
       </c>
-      <c r="L260" s="0" t="n">
-        <v>1</v>
+      <c r="L260" s="0" t="e">
+        <f aca="false">F260/G260</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M260" s="0" t="n">
         <f aca="false">SUM(H260,I260)</f>
@@ -17414,8 +17257,9 @@
         <f aca="false">C264:C547/D264:D547</f>
         <v>1</v>
       </c>
-      <c r="L264" s="0" t="n">
-        <v>1</v>
+      <c r="L264" s="0" t="e">
+        <f aca="false">F264/G264</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M264" s="0" t="n">
         <f aca="false">SUM(H264,I264)</f>
@@ -17695,8 +17539,9 @@
         <f aca="false">C270:C553/D270:D553</f>
         <v>1</v>
       </c>
-      <c r="L270" s="0" t="n">
-        <v>1</v>
+      <c r="L270" s="0" t="e">
+        <f aca="false">F270/G270</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M270" s="0" t="n">
         <f aca="false">SUM(H270,I270)</f>
@@ -17835,8 +17680,9 @@
         <f aca="false">C273:C556/D273:D556</f>
         <v>0</v>
       </c>
-      <c r="L273" s="0" t="n">
-        <v>1</v>
+      <c r="L273" s="0" t="e">
+        <f aca="false">F273/G273</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M273" s="0" t="n">
         <f aca="false">SUM(H273,I273)</f>
@@ -17881,8 +17727,9 @@
         <f aca="false">C274:C557/D274:D557</f>
         <v>0</v>
       </c>
-      <c r="L274" s="0" t="n">
-        <v>1</v>
+      <c r="L274" s="0" t="e">
+        <f aca="false">F274/G274</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M274" s="0" t="n">
         <f aca="false">SUM(H274,I274)</f>
@@ -17927,8 +17774,9 @@
         <f aca="false">C275:C558/D275:D558</f>
         <v>1</v>
       </c>
-      <c r="L275" s="0" t="n">
-        <v>1</v>
+      <c r="L275" s="0" t="e">
+        <f aca="false">F275/G275</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M275" s="0" t="n">
         <f aca="false">SUM(H275,I275)</f>
@@ -17973,8 +17821,9 @@
         <f aca="false">C276:C559/D276:D559</f>
         <v>1</v>
       </c>
-      <c r="L276" s="0" t="n">
-        <v>1</v>
+      <c r="L276" s="0" t="e">
+        <f aca="false">F276/G276</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M276" s="0" t="n">
         <f aca="false">SUM(H276,I276)</f>
@@ -18019,8 +17868,9 @@
         <f aca="false">C277:C560/D277:D560</f>
         <v>1</v>
       </c>
-      <c r="L277" s="0" t="n">
-        <v>1</v>
+      <c r="L277" s="0" t="e">
+        <f aca="false">F277/G277</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M277" s="0" t="n">
         <f aca="false">SUM(H277,I277)</f>
@@ -18065,8 +17915,9 @@
         <f aca="false">C278:C561/D278:D561</f>
         <v>1</v>
       </c>
-      <c r="L278" s="0" t="n">
-        <v>1</v>
+      <c r="L278" s="0" t="e">
+        <f aca="false">F278/G278</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M278" s="0" t="n">
         <f aca="false">SUM(H278,I278)</f>
@@ -18205,8 +18056,9 @@
         <f aca="false">C281:C564/D281:D564</f>
         <v>1</v>
       </c>
-      <c r="L281" s="0" t="n">
-        <v>1</v>
+      <c r="L281" s="0" t="e">
+        <f aca="false">F281/G281</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M281" s="0" t="n">
         <f aca="false">SUM(H281,I281)</f>
@@ -18251,8 +18103,9 @@
         <f aca="false">C282:C565/D282:D565</f>
         <v>1</v>
       </c>
-      <c r="L282" s="0" t="n">
-        <v>1</v>
+      <c r="L282" s="0" t="e">
+        <f aca="false">F282/G282</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M282" s="0" t="n">
         <f aca="false">SUM(H282,I282)</f>

--- a/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&4.xlsx
+++ b/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&4.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="288">
   <si>
     <t xml:space="preserve">CLASS</t>
   </si>
@@ -79,6 +80,12 @@
     <t xml:space="preserve">XMLBeanDeclaration.NodeData</t>
   </si>
   <si>
+    <t xml:space="preserve">Spearman 1: Statement Coverage and Mccabe Complexity:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spearman 2: Branch Coverage and Mccabe Complexity:</t>
+  </si>
+  <si>
     <t xml:space="preserve">XMLBeanDeclaration</t>
   </si>
   <si>
@@ -875,6 +882,9 @@
   </si>
   <si>
     <t xml:space="preserve">ConfigurationPropertySource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DIV/0!</t>
   </si>
 </sst>
 </file>
@@ -953,7 +963,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -977,6 +987,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -992,13 +1006,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1024,7 +1039,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0084D1"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1063,7 +1078,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1083,11 +1098,19 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Metric 1 &amp; 4</a:t>
+              <a:t>Project 4: Metric 1 &amp; 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.419640628899426"/>
+          <c:y val="0.0351462573684796"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1103,10 +1126,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.116530319115718"/>
-          <c:y val="0.166555481432066"/>
-          <c:w val="0.828639230625117"/>
-          <c:h val="0.634978874805426"/>
+          <c:x val="0.116546044422261"/>
+          <c:y val="0.166611055499944"/>
+          <c:w val="0.828487646618418"/>
+          <c:h val="0.634857079301524"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1128,7 +1151,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="0084d1"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
@@ -1139,7 +1162,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -1169,7 +1192,7 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="0084d1"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -2903,11 +2926,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71332367"/>
-        <c:axId val="94465689"/>
+        <c:axId val="51472164"/>
+        <c:axId val="47036359"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71332367"/>
+        <c:axId val="51472164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2964,18 +2987,27 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94465689"/>
+        <c:crossAx val="47036359"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94465689"/>
+        <c:axId val="47036359"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3026,7 +3058,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71332367"/>
+        <c:crossAx val="51472164"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3053,7 +3085,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3073,11 +3105,19 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Metric 2 &amp; 4</a:t>
+              <a:t>Project 4: Metric 2 &amp; 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.419644527595884"/>
+          <c:y val="0.0351462573684796"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3093,10 +3133,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.116467869855742"/>
-          <c:y val="0.166666666666667"/>
-          <c:w val="0.828639230625117"/>
-          <c:h val="0.634978874805426"/>
+          <c:x val="0.116495166822576"/>
+          <c:y val="0.166722277833389"/>
+          <c:w val="0.82843779232928"/>
+          <c:h val="0.634857079301524"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3118,7 +3158,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="0084d1"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
@@ -3129,7 +3169,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084d1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -3159,7 +3199,7 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="0084d1"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -4608,11 +4648,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="90380715"/>
-        <c:axId val="51235077"/>
+        <c:axId val="7828137"/>
+        <c:axId val="58592653"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90380715"/>
+        <c:axId val="7828137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4669,18 +4709,27 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51235077"/>
+        <c:crossAx val="58592653"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51235077"/>
+        <c:axId val="58592653"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4731,7 +4780,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90380715"/>
+        <c:crossAx val="7828137"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4763,15 +4812,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>326160</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:colOff>1090080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>215640</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>156240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4779,8 +4828,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21079800" y="1038960"/>
-        <a:ext cx="5764320" cy="3237480"/>
+        <a:off x="21843720" y="2914920"/>
+        <a:ext cx="5769720" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4793,15 +4842,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>360000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:colOff>1089000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>157680</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4809,8 +4858,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21113640" y="4550760"/>
-        <a:ext cx="5764320" cy="3237480"/>
+        <a:off x="21842640" y="6422040"/>
+        <a:ext cx="5772240" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4830,11 +4879,11 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U43" activeCellId="0" sqref="U43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
@@ -5037,16 +5086,12 @@
         <f aca="false">C4:C287/D4:D287</f>
         <v>0.916666666666667</v>
       </c>
-      <c r="L4" s="0" t="e">
-        <f aca="false">F4/G4</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M4" s="0" t="n">
         <f aca="false">SUM(H4,I4)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
@@ -5092,10 +5137,16 @@
         <f aca="false">SUM(H5,I5)</f>
         <v>10</v>
       </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>13</v>
@@ -5139,10 +5190,17 @@
         <f aca="false">SUM(H6,I6)</f>
         <v>43</v>
       </c>
+      <c r="N6" s="0" t="e">
+        <f aca="false">PEARSON(S2:S285,T2:T285)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.26503472519437</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5189,7 +5247,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5236,7 +5294,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>24</v>
@@ -5283,7 +5341,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>7</v>
@@ -5330,7 +5388,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>83</v>
@@ -5377,7 +5435,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -5424,7 +5482,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5471,7 +5529,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5507,10 +5565,6 @@
         <f aca="false">C14:C297/D14:D297</f>
         <v>1</v>
       </c>
-      <c r="L14" s="0" t="e">
-        <f aca="false">F14/G14</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M14" s="0" t="n">
         <f aca="false">SUM(H14,I14)</f>
         <v>4</v>
@@ -5518,7 +5572,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -5565,7 +5619,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5612,7 +5666,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -5659,7 +5713,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>4</v>
@@ -5706,7 +5760,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -5742,10 +5796,6 @@
         <f aca="false">C19:C302/D19:D302</f>
         <v>1</v>
       </c>
-      <c r="L19" s="0" t="e">
-        <f aca="false">F19/G19</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M19" s="0" t="n">
         <f aca="false">SUM(H19,I19)</f>
         <v>4</v>
@@ -5753,7 +5803,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -5800,7 +5850,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -5847,7 +5897,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>3</v>
@@ -5894,7 +5944,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>3</v>
@@ -5941,7 +5991,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -5988,7 +6038,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -6024,10 +6074,6 @@
         <f aca="false">C25:C308/D25:D308</f>
         <v>1</v>
       </c>
-      <c r="L25" s="0" t="e">
-        <f aca="false">F25/G25</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M25" s="0" t="n">
         <f aca="false">SUM(H25,I25)</f>
         <v>2</v>
@@ -6035,7 +6081,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -6071,10 +6117,6 @@
         <f aca="false">C26:C309/D26:D309</f>
         <v>1</v>
       </c>
-      <c r="L26" s="0" t="e">
-        <f aca="false">F26/G26</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M26" s="0" t="n">
         <f aca="false">SUM(H26,I26)</f>
         <v>2</v>
@@ -6082,7 +6124,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -6118,10 +6160,6 @@
         <f aca="false">C27:C310/D27:D310</f>
         <v>1</v>
       </c>
-      <c r="L27" s="0" t="e">
-        <f aca="false">F27/G27</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M27" s="0" t="n">
         <f aca="false">SUM(H27,I27)</f>
         <v>2</v>
@@ -6129,7 +6167,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -6176,7 +6214,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -6223,7 +6261,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -6270,7 +6308,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -6306,10 +6344,6 @@
         <f aca="false">C31:C314/D31:D314</f>
         <v>1</v>
       </c>
-      <c r="L31" s="0" t="e">
-        <f aca="false">F31/G31</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M31" s="0" t="n">
         <f aca="false">SUM(H31,I31)</f>
         <v>4</v>
@@ -6317,7 +6351,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -6364,7 +6398,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>11</v>
@@ -6411,7 +6445,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -6458,7 +6492,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -6505,7 +6539,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -6541,10 +6575,6 @@
         <f aca="false">C36:C319/D36:D319</f>
         <v>1</v>
       </c>
-      <c r="L36" s="0" t="e">
-        <f aca="false">F36/G36</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M36" s="0" t="n">
         <f aca="false">SUM(H36,I36)</f>
         <v>4</v>
@@ -6552,7 +6582,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -6599,7 +6629,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -6635,10 +6665,6 @@
         <f aca="false">C38:C321/D38:D321</f>
         <v>1</v>
       </c>
-      <c r="L38" s="0" t="e">
-        <f aca="false">F38/G38</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M38" s="0" t="n">
         <f aca="false">SUM(H38,I38)</f>
         <v>4</v>
@@ -6646,7 +6672,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -6693,7 +6719,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -6740,7 +6766,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -6787,7 +6813,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -6823,10 +6849,6 @@
         <f aca="false">C42:C325/D42:D325</f>
         <v>1</v>
       </c>
-      <c r="L42" s="0" t="e">
-        <f aca="false">F42/G42</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M42" s="0" t="n">
         <f aca="false">SUM(H42,I42)</f>
         <v>3</v>
@@ -6834,7 +6856,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -6870,10 +6892,6 @@
         <f aca="false">C43:C326/D43:D326</f>
         <v>1</v>
       </c>
-      <c r="L43" s="0" t="e">
-        <f aca="false">F43/G43</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M43" s="0" t="n">
         <f aca="false">SUM(H43,I43)</f>
         <v>6</v>
@@ -6881,7 +6899,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2</v>
@@ -6928,7 +6946,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>5</v>
@@ -6975,7 +6993,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>15</v>
@@ -7022,7 +7040,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -7069,7 +7087,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>3</v>
@@ -7116,7 +7134,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -7152,10 +7170,6 @@
         <f aca="false">C49:C332/D49:D332</f>
         <v>1</v>
       </c>
-      <c r="L49" s="0" t="e">
-        <f aca="false">F49/G49</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M49" s="0" t="n">
         <f aca="false">SUM(H49,I49)</f>
         <v>2</v>
@@ -7163,7 +7177,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>2</v>
@@ -7210,7 +7224,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>73</v>
@@ -7257,7 +7271,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -7293,10 +7307,6 @@
         <f aca="false">C52:C335/D52:D335</f>
         <v>1</v>
       </c>
-      <c r="L52" s="0" t="e">
-        <f aca="false">F52/G52</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M52" s="0" t="n">
         <f aca="false">SUM(H52,I52)</f>
         <v>5</v>
@@ -7304,7 +7314,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>11</v>
@@ -7351,7 +7361,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
@@ -7387,10 +7397,6 @@
         <f aca="false">C54:C337/D54:D337</f>
         <v>1</v>
       </c>
-      <c r="L54" s="0" t="e">
-        <f aca="false">F54/G54</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M54" s="0" t="n">
         <f aca="false">SUM(H54,I54)</f>
         <v>4</v>
@@ -7398,7 +7404,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>2</v>
@@ -7445,7 +7451,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -7492,7 +7498,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -7539,7 +7545,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>3</v>
@@ -7586,7 +7592,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>10</v>
@@ -7633,7 +7639,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
@@ -7680,7 +7686,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>8</v>
@@ -7716,10 +7722,6 @@
         <f aca="false">C61:C344/D61:D344</f>
         <v>0.636363636363636</v>
       </c>
-      <c r="L61" s="0" t="e">
-        <f aca="false">F61/G61</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M61" s="0" t="n">
         <f aca="false">SUM(H61,I61)</f>
         <v>5</v>
@@ -7727,7 +7729,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0</v>
@@ -7774,7 +7776,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>23</v>
@@ -7810,10 +7812,6 @@
         <f aca="false">C63:C346/D63:D346</f>
         <v>0.41025641025641</v>
       </c>
-      <c r="L63" s="0" t="e">
-        <f aca="false">F63/G63</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M63" s="0" t="n">
         <f aca="false">SUM(H63,I63)</f>
         <v>8</v>
@@ -7821,7 +7819,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1</v>
@@ -7857,10 +7855,6 @@
         <f aca="false">C64:C347/D64:D347</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="L64" s="0" t="e">
-        <f aca="false">F64/G64</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M64" s="0" t="n">
         <f aca="false">SUM(H64,I64)</f>
         <v>3</v>
@@ -7868,7 +7862,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2</v>
@@ -7915,7 +7909,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>3</v>
@@ -7951,10 +7945,6 @@
         <f aca="false">C66:C349/D66:D349</f>
         <v>0.625</v>
       </c>
-      <c r="L66" s="0" t="e">
-        <f aca="false">F66/G66</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M66" s="0" t="n">
         <f aca="false">SUM(H66,I66)</f>
         <v>4</v>
@@ -7962,7 +7952,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
@@ -8009,7 +7999,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0</v>
@@ -8056,7 +8046,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>12</v>
@@ -8103,7 +8093,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0</v>
@@ -8150,7 +8140,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>3</v>
@@ -8197,7 +8187,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>1</v>
@@ -8244,7 +8234,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>1</v>
@@ -8291,7 +8281,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>14</v>
@@ -8338,7 +8328,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>7</v>
@@ -8385,7 +8375,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>7</v>
@@ -8432,7 +8422,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
@@ -8479,7 +8469,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>0</v>
@@ -8526,7 +8516,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0</v>
@@ -8562,10 +8552,6 @@
         <f aca="false">C79:C362/D79:D362</f>
         <v>1</v>
       </c>
-      <c r="L79" s="0" t="e">
-        <f aca="false">F79/G79</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M79" s="0" t="n">
         <f aca="false">SUM(H79,I79)</f>
         <v>2</v>
@@ -8573,7 +8559,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1</v>
@@ -8620,7 +8606,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>0</v>
@@ -8667,7 +8653,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>0</v>
@@ -8703,10 +8689,6 @@
         <f aca="false">C82:C365/D82:D365</f>
         <v>1</v>
       </c>
-      <c r="L82" s="0" t="e">
-        <f aca="false">F82/G82</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M82" s="0" t="n">
         <f aca="false">SUM(H82,I82)</f>
         <v>4</v>
@@ -8714,7 +8696,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>5</v>
@@ -8761,7 +8743,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0</v>
@@ -8797,10 +8779,6 @@
         <f aca="false">C84:C367/D84:D367</f>
         <v>1</v>
       </c>
-      <c r="L84" s="0" t="e">
-        <f aca="false">F84/G84</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M84" s="0" t="n">
         <f aca="false">SUM(H84,I84)</f>
         <v>2</v>
@@ -8808,7 +8786,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>7</v>
@@ -8855,7 +8833,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0</v>
@@ -8902,7 +8880,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>4</v>
@@ -8949,7 +8927,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0</v>
@@ -8996,7 +8974,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0</v>
@@ -9032,10 +9010,6 @@
         <f aca="false">C89:C372/D89:D372</f>
         <v>1</v>
       </c>
-      <c r="L89" s="0" t="e">
-        <f aca="false">F89/G89</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M89" s="0" t="n">
         <f aca="false">SUM(H89,I89)</f>
         <v>6</v>
@@ -9043,7 +9017,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0</v>
@@ -9090,7 +9064,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0</v>
@@ -9137,7 +9111,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0</v>
@@ -9173,10 +9147,6 @@
         <f aca="false">C92:C375/D92:D375</f>
         <v>1</v>
       </c>
-      <c r="L92" s="0" t="e">
-        <f aca="false">F92/G92</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M92" s="0" t="n">
         <f aca="false">SUM(H92,I92)</f>
         <v>5</v>
@@ -9184,7 +9154,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0</v>
@@ -9231,7 +9201,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>0</v>
@@ -9278,7 +9248,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0</v>
@@ -9314,10 +9284,6 @@
         <f aca="false">C95:C378/D95:D378</f>
         <v>1</v>
       </c>
-      <c r="L95" s="0" t="e">
-        <f aca="false">F95/G95</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M95" s="0" t="n">
         <f aca="false">SUM(H95,I95)</f>
         <v>2</v>
@@ -9325,7 +9291,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0</v>
@@ -9372,7 +9338,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0</v>
@@ -9408,10 +9374,6 @@
         <f aca="false">C97:C380/D97:D380</f>
         <v>1</v>
       </c>
-      <c r="L97" s="0" t="e">
-        <f aca="false">F97/G97</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M97" s="0" t="n">
         <f aca="false">SUM(H97,I97)</f>
         <v>5</v>
@@ -9419,7 +9381,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
@@ -9466,7 +9428,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>26</v>
@@ -9513,7 +9475,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
@@ -9549,10 +9511,6 @@
         <f aca="false">C100:C383/D100:D383</f>
         <v>1</v>
       </c>
-      <c r="L100" s="0" t="e">
-        <f aca="false">F100/G100</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M100" s="0" t="n">
         <f aca="false">SUM(H100,I100)</f>
         <v>2</v>
@@ -9560,7 +9518,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>1</v>
@@ -9607,7 +9565,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>2</v>
@@ -9654,7 +9612,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0</v>
@@ -9690,10 +9648,6 @@
         <f aca="false">C103:C386/D103:D386</f>
         <v>1</v>
       </c>
-      <c r="L103" s="0" t="e">
-        <f aca="false">F103/G103</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M103" s="0" t="n">
         <f aca="false">SUM(H103,I103)</f>
         <v>4</v>
@@ -9701,7 +9655,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>4</v>
@@ -9737,10 +9691,6 @@
         <f aca="false">C104:C387/D104:D387</f>
         <v>0.5</v>
       </c>
-      <c r="L104" s="0" t="e">
-        <f aca="false">F104/G104</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M104" s="0" t="n">
         <f aca="false">SUM(H104,I104)</f>
         <v>4</v>
@@ -9748,7 +9698,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0</v>
@@ -9784,10 +9734,6 @@
         <f aca="false">C105:C388/D105:D388</f>
         <v>1</v>
       </c>
-      <c r="L105" s="0" t="e">
-        <f aca="false">F105/G105</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M105" s="0" t="n">
         <f aca="false">SUM(H105,I105)</f>
         <v>5</v>
@@ -9795,7 +9741,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0</v>
@@ -9831,10 +9777,6 @@
         <f aca="false">C106:C389/D106:D389</f>
         <v>1</v>
       </c>
-      <c r="L106" s="0" t="e">
-        <f aca="false">F106/G106</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M106" s="0" t="n">
         <f aca="false">SUM(H106,I106)</f>
         <v>3</v>
@@ -9842,7 +9784,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>5</v>
@@ -9889,7 +9831,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0</v>
@@ -9925,10 +9867,6 @@
         <f aca="false">C108:C391/D108:D391</f>
         <v>1</v>
       </c>
-      <c r="L108" s="0" t="e">
-        <f aca="false">F108/G108</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M108" s="0" t="n">
         <f aca="false">SUM(H108,I108)</f>
         <v>2</v>
@@ -9936,7 +9874,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -9983,7 +9921,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0</v>
@@ -10030,7 +9968,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>8</v>
@@ -10077,7 +10015,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>2</v>
@@ -10124,7 +10062,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0</v>
@@ -10171,7 +10109,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>1</v>
@@ -10218,7 +10156,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0</v>
@@ -10254,10 +10192,6 @@
         <f aca="false">C115:C398/D115:D398</f>
         <v>1</v>
       </c>
-      <c r="L115" s="0" t="e">
-        <f aca="false">F115/G115</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M115" s="0" t="n">
         <f aca="false">SUM(H115,I115)</f>
         <v>2</v>
@@ -10265,7 +10199,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>2</v>
@@ -10312,7 +10246,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0</v>
@@ -10348,10 +10282,6 @@
         <f aca="false">C117:C400/D117:D400</f>
         <v>1</v>
       </c>
-      <c r="L117" s="0" t="e">
-        <f aca="false">F117/G117</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M117" s="0" t="n">
         <f aca="false">SUM(H117,I117)</f>
         <v>4</v>
@@ -10359,7 +10289,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>1</v>
@@ -10406,7 +10336,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>2</v>
@@ -10453,7 +10383,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>4</v>
@@ -10500,7 +10430,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>0</v>
@@ -10547,7 +10477,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>1</v>
@@ -10594,7 +10524,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>0</v>
@@ -10641,7 +10571,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>0</v>
@@ -10677,10 +10607,6 @@
         <f aca="false">C124:C407/D124:D407</f>
         <v>1</v>
       </c>
-      <c r="L124" s="0" t="e">
-        <f aca="false">F124/G124</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M124" s="0" t="n">
         <f aca="false">SUM(H124,I124)</f>
         <v>6</v>
@@ -10688,7 +10614,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>1</v>
@@ -10735,7 +10661,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>1</v>
@@ -10782,7 +10708,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>0</v>
@@ -10829,7 +10755,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>0</v>
@@ -10876,7 +10802,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>0</v>
@@ -10923,7 +10849,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>0</v>
@@ -10970,7 +10896,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>2</v>
@@ -11017,7 +10943,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>0</v>
@@ -11064,7 +10990,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>0</v>
@@ -11111,7 +11037,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>0</v>
@@ -11158,7 +11084,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>0</v>
@@ -11205,7 +11131,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0</v>
@@ -11241,10 +11167,6 @@
         <f aca="false">C136:C419/D136:D419</f>
         <v>1</v>
       </c>
-      <c r="L136" s="0" t="e">
-        <f aca="false">F136/G136</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M136" s="0" t="n">
         <f aca="false">SUM(H136,I136)</f>
         <v>1</v>
@@ -11252,7 +11174,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>0</v>
@@ -11299,7 +11221,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>0</v>
@@ -11335,10 +11257,6 @@
         <f aca="false">C138:C421/D138:D421</f>
         <v>1</v>
       </c>
-      <c r="L138" s="0" t="e">
-        <f aca="false">F138/G138</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M138" s="0" t="n">
         <f aca="false">SUM(H138,I138)</f>
         <v>3</v>
@@ -11346,7 +11264,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0</v>
@@ -11382,10 +11300,6 @@
         <f aca="false">C139:C422/D139:D422</f>
         <v>1</v>
       </c>
-      <c r="L139" s="0" t="e">
-        <f aca="false">F139/G139</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M139" s="0" t="n">
         <f aca="false">SUM(H139,I139)</f>
         <v>6</v>
@@ -11393,7 +11307,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>0</v>
@@ -11440,7 +11354,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0</v>
@@ -11487,7 +11401,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>0</v>
@@ -11523,10 +11437,6 @@
         <f aca="false">C142:C425/D142:D425</f>
         <v>1</v>
       </c>
-      <c r="L142" s="0" t="e">
-        <f aca="false">F142/G142</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M142" s="0" t="n">
         <f aca="false">SUM(H142,I142)</f>
         <v>3</v>
@@ -11534,7 +11444,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>0</v>
@@ -11581,7 +11491,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0</v>
@@ -11628,7 +11538,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>0</v>
@@ -11675,7 +11585,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>0</v>
@@ -11722,7 +11632,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>0</v>
@@ -11769,7 +11679,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>0</v>
@@ -11805,10 +11715,6 @@
         <f aca="false">C148:C431/D148:D431</f>
         <v>1</v>
       </c>
-      <c r="L148" s="0" t="e">
-        <f aca="false">F148/G148</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M148" s="0" t="n">
         <f aca="false">SUM(H148,I148)</f>
         <v>3</v>
@@ -11816,7 +11722,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>2</v>
@@ -11863,7 +11769,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>1</v>
@@ -11899,10 +11805,6 @@
         <f aca="false">C150:C433/D150:D433</f>
         <v>0.857142857142857</v>
       </c>
-      <c r="L150" s="0" t="e">
-        <f aca="false">F150/G150</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M150" s="0" t="n">
         <f aca="false">SUM(H150,I150)</f>
         <v>7</v>
@@ -11910,7 +11812,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>0</v>
@@ -11957,7 +11859,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>1</v>
@@ -12004,7 +11906,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>2</v>
@@ -12040,10 +11942,6 @@
         <f aca="false">C153:C436/D153:D436</f>
         <v>0</v>
       </c>
-      <c r="L153" s="0" t="e">
-        <f aca="false">F153/G153</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M153" s="0" t="n">
         <f aca="false">SUM(H153,I153)</f>
         <v>2</v>
@@ -12051,7 +11949,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>5</v>
@@ -12087,10 +11985,6 @@
         <f aca="false">C154:C437/D154:D437</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="L154" s="0" t="e">
-        <f aca="false">F154/G154</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M154" s="0" t="n">
         <f aca="false">SUM(H154,I154)</f>
         <v>5</v>
@@ -12098,7 +11992,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>1</v>
@@ -12134,10 +12028,6 @@
         <f aca="false">C155:C438/D155:D438</f>
         <v>0</v>
       </c>
-      <c r="L155" s="0" t="e">
-        <f aca="false">F155/G155</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M155" s="0" t="n">
         <f aca="false">SUM(H155,I155)</f>
         <v>1</v>
@@ -12145,7 +12035,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>0</v>
@@ -12181,10 +12071,6 @@
         <f aca="false">C156:C439/D156:D439</f>
         <v>1</v>
       </c>
-      <c r="L156" s="0" t="e">
-        <f aca="false">F156/G156</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M156" s="0" t="n">
         <f aca="false">SUM(H156,I156)</f>
         <v>9</v>
@@ -12192,7 +12078,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>0</v>
@@ -12239,7 +12125,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>0</v>
@@ -12286,7 +12172,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>0</v>
@@ -12322,10 +12208,6 @@
         <f aca="false">C159:C442/D159:D442</f>
         <v>1</v>
       </c>
-      <c r="L159" s="0" t="e">
-        <f aca="false">F159/G159</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M159" s="0" t="n">
         <f aca="false">SUM(H159,I159)</f>
         <v>8</v>
@@ -12333,7 +12215,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>0</v>
@@ -12380,7 +12262,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>0</v>
@@ -12416,10 +12298,6 @@
         <f aca="false">C161:C444/D161:D444</f>
         <v>1</v>
       </c>
-      <c r="L161" s="0" t="e">
-        <f aca="false">F161/G161</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M161" s="0" t="n">
         <f aca="false">SUM(H161,I161)</f>
         <v>5</v>
@@ -12427,7 +12305,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>0</v>
@@ -12463,10 +12341,6 @@
         <f aca="false">C162:C445/D162:D445</f>
         <v>1</v>
       </c>
-      <c r="L162" s="0" t="e">
-        <f aca="false">F162/G162</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M162" s="0" t="n">
         <f aca="false">SUM(H162,I162)</f>
         <v>2</v>
@@ -12474,7 +12348,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>0</v>
@@ -12521,7 +12395,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>0</v>
@@ -12557,10 +12431,6 @@
         <f aca="false">C164:C447/D164:D447</f>
         <v>1</v>
       </c>
-      <c r="L164" s="0" t="e">
-        <f aca="false">F164/G164</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M164" s="0" t="n">
         <f aca="false">SUM(H164,I164)</f>
         <v>2</v>
@@ -12568,7 +12438,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>0</v>
@@ -12604,10 +12474,6 @@
         <f aca="false">C165:C448/D165:D448</f>
         <v>1</v>
       </c>
-      <c r="L165" s="0" t="e">
-        <f aca="false">F165/G165</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M165" s="0" t="n">
         <f aca="false">SUM(H165,I165)</f>
         <v>2</v>
@@ -12615,7 +12481,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>0</v>
@@ -12651,10 +12517,6 @@
         <f aca="false">C166:C449/D166:D449</f>
         <v>1</v>
       </c>
-      <c r="L166" s="0" t="e">
-        <f aca="false">F166/G166</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M166" s="0" t="n">
         <f aca="false">SUM(H166,I166)</f>
         <v>2</v>
@@ -12662,7 +12524,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>2</v>
@@ -12698,10 +12560,6 @@
         <f aca="false">C167:C450/D167:D450</f>
         <v>0.6</v>
       </c>
-      <c r="L167" s="0" t="e">
-        <f aca="false">F167/G167</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M167" s="0" t="n">
         <f aca="false">SUM(H167,I167)</f>
         <v>5</v>
@@ -12709,7 +12567,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>0</v>
@@ -12745,10 +12603,6 @@
         <f aca="false">C168:C451/D168:D451</f>
         <v>1</v>
       </c>
-      <c r="L168" s="0" t="e">
-        <f aca="false">F168/G168</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M168" s="0" t="n">
         <f aca="false">SUM(H168,I168)</f>
         <v>2</v>
@@ -12756,7 +12610,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>0</v>
@@ -12792,10 +12646,6 @@
         <f aca="false">C169:C452/D169:D452</f>
         <v>1</v>
       </c>
-      <c r="L169" s="0" t="e">
-        <f aca="false">F169/G169</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M169" s="0" t="n">
         <f aca="false">SUM(H169,I169)</f>
         <v>6</v>
@@ -12803,7 +12653,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>0</v>
@@ -12839,10 +12689,6 @@
         <f aca="false">C170:C453/D170:D453</f>
         <v>1</v>
       </c>
-      <c r="L170" s="0" t="e">
-        <f aca="false">F170/G170</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M170" s="0" t="n">
         <f aca="false">SUM(H170,I170)</f>
         <v>2</v>
@@ -12850,7 +12696,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>0</v>
@@ -12886,10 +12732,6 @@
         <f aca="false">C171:C454/D171:D454</f>
         <v>1</v>
       </c>
-      <c r="L171" s="0" t="e">
-        <f aca="false">F171/G171</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M171" s="0" t="n">
         <f aca="false">SUM(H171,I171)</f>
         <v>2</v>
@@ -12897,7 +12739,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>0</v>
@@ -12933,10 +12775,6 @@
         <f aca="false">C172:C455/D172:D455</f>
         <v>1</v>
       </c>
-      <c r="L172" s="0" t="e">
-        <f aca="false">F172/G172</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M172" s="0" t="n">
         <f aca="false">SUM(H172,I172)</f>
         <v>2</v>
@@ -12944,7 +12782,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>2</v>
@@ -12991,7 +12829,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>0</v>
@@ -13027,10 +12865,6 @@
         <f aca="false">C174:C457/D174:D457</f>
         <v>1</v>
       </c>
-      <c r="L174" s="0" t="e">
-        <f aca="false">F174/G174</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M174" s="0" t="n">
         <f aca="false">SUM(H174,I174)</f>
         <v>2</v>
@@ -13038,7 +12872,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>0</v>
@@ -13085,7 +12919,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>18</v>
@@ -13132,7 +12966,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>0</v>
@@ -13179,7 +13013,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>0</v>
@@ -13215,10 +13049,6 @@
         <f aca="false">C178:C461/D178:D461</f>
         <v>1</v>
       </c>
-      <c r="L178" s="0" t="e">
-        <f aca="false">F178/G178</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M178" s="0" t="n">
         <f aca="false">SUM(H178,I178)</f>
         <v>1</v>
@@ -13226,7 +13056,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>2</v>
@@ -13273,7 +13103,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>5</v>
@@ -13320,7 +13150,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>0</v>
@@ -13367,7 +13197,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>108</v>
@@ -13414,7 +13244,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>0</v>
@@ -13461,7 +13291,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>0</v>
@@ -13508,7 +13338,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>0</v>
@@ -13555,7 +13385,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>0</v>
@@ -13602,7 +13432,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>4</v>
@@ -13638,10 +13468,6 @@
         <f aca="false">C187:C470/D187:D470</f>
         <v>0</v>
       </c>
-      <c r="L187" s="0" t="e">
-        <f aca="false">F187/G187</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M187" s="0" t="n">
         <f aca="false">SUM(H187,I187)</f>
         <v>2</v>
@@ -13649,7 +13475,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>2</v>
@@ -13696,7 +13522,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>13</v>
@@ -13743,7 +13569,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>0</v>
@@ -13779,10 +13605,6 @@
         <f aca="false">C190:C473/D190:D473</f>
         <v>1</v>
       </c>
-      <c r="L190" s="0" t="e">
-        <f aca="false">F190/G190</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M190" s="0" t="n">
         <f aca="false">SUM(H190,I190)</f>
         <v>2</v>
@@ -13790,7 +13612,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>0</v>
@@ -13837,7 +13659,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>0</v>
@@ -13873,10 +13695,6 @@
         <f aca="false">C192:C475/D192:D475</f>
         <v>1</v>
       </c>
-      <c r="L192" s="0" t="e">
-        <f aca="false">F192/G192</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M192" s="0" t="n">
         <f aca="false">SUM(H192,I192)</f>
         <v>5</v>
@@ -13884,7 +13702,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>0</v>
@@ -13920,10 +13738,6 @@
         <f aca="false">C193:C476/D193:D476</f>
         <v>1</v>
       </c>
-      <c r="L193" s="0" t="e">
-        <f aca="false">F193/G193</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M193" s="0" t="n">
         <f aca="false">SUM(H193,I193)</f>
         <v>1</v>
@@ -13931,7 +13745,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>0</v>
@@ -13978,7 +13792,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>37</v>
@@ -14025,7 +13839,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>29</v>
@@ -14072,7 +13886,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>0</v>
@@ -14119,7 +13933,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>0</v>
@@ -14155,10 +13969,6 @@
         <f aca="false">C198:C481/D198:D481</f>
         <v>1</v>
       </c>
-      <c r="L198" s="0" t="e">
-        <f aca="false">F198/G198</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M198" s="0" t="n">
         <f aca="false">SUM(H198,I198)</f>
         <v>3</v>
@@ -14166,7 +13976,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>5</v>
@@ -14202,10 +14012,6 @@
         <f aca="false">C199:C482/D199:D482</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="L199" s="0" t="e">
-        <f aca="false">F199/G199</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M199" s="0" t="n">
         <f aca="false">SUM(H199,I199)</f>
         <v>7</v>
@@ -14213,7 +14019,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>34</v>
@@ -14260,7 +14066,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>1</v>
@@ -14307,7 +14113,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>0</v>
@@ -14354,7 +14160,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>153</v>
@@ -14401,7 +14207,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>0</v>
@@ -14437,10 +14243,6 @@
         <f aca="false">C204:C487/D204:D487</f>
         <v>1</v>
       </c>
-      <c r="L204" s="0" t="e">
-        <f aca="false">F204/G204</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M204" s="0" t="n">
         <f aca="false">SUM(H204,I204)</f>
         <v>1</v>
@@ -14448,7 +14250,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>0</v>
@@ -14495,7 +14297,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>0</v>
@@ -14531,10 +14333,6 @@
         <f aca="false">C206:C489/D206:D489</f>
         <v>1</v>
       </c>
-      <c r="L206" s="0" t="e">
-        <f aca="false">F206/G206</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M206" s="0" t="n">
         <f aca="false">SUM(H206,I206)</f>
         <v>4</v>
@@ -14542,7 +14340,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>10</v>
@@ -14589,7 +14387,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>124</v>
@@ -14636,7 +14434,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>102</v>
@@ -14683,7 +14481,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>24</v>
@@ -14730,7 +14528,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>0</v>
@@ -14766,10 +14564,6 @@
         <f aca="false">C211:C494/D211:D494</f>
         <v>1</v>
       </c>
-      <c r="L211" s="0" t="e">
-        <f aca="false">F211/G211</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M211" s="0" t="n">
         <f aca="false">SUM(H211,I211)</f>
         <v>1</v>
@@ -14777,7 +14571,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>12</v>
@@ -14824,7 +14618,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>7</v>
@@ -14871,7 +14665,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>3</v>
@@ -14918,7 +14712,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>15</v>
@@ -14965,7 +14759,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>0</v>
@@ -15012,7 +14806,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>0</v>
@@ -15059,7 +14853,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>0</v>
@@ -15095,10 +14889,6 @@
         <f aca="false">C218:C501/D218:D501</f>
         <v>1</v>
       </c>
-      <c r="L218" s="0" t="e">
-        <f aca="false">F218/G218</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M218" s="0" t="n">
         <f aca="false">SUM(H218,I218)</f>
         <v>4</v>
@@ -15106,7 +14896,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>4</v>
@@ -15153,7 +14943,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>0</v>
@@ -15200,7 +14990,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>2</v>
@@ -15247,7 +15037,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>0</v>
@@ -15294,7 +15084,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>0</v>
@@ -15330,10 +15120,6 @@
         <f aca="false">C223:C506/D223:D506</f>
         <v>1</v>
       </c>
-      <c r="L223" s="0" t="e">
-        <f aca="false">F223/G223</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M223" s="0" t="n">
         <f aca="false">SUM(H223,I223)</f>
         <v>4</v>
@@ -15341,7 +15127,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>1</v>
@@ -15388,7 +15174,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>0</v>
@@ -15435,7 +15221,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>1</v>
@@ -15482,7 +15268,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>0</v>
@@ -15529,7 +15315,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>0</v>
@@ -15565,10 +15351,6 @@
         <f aca="false">C228:C511/D228:D511</f>
         <v>1</v>
       </c>
-      <c r="L228" s="0" t="e">
-        <f aca="false">F228/G228</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M228" s="0" t="n">
         <f aca="false">SUM(H228,I228)</f>
         <v>2</v>
@@ -15576,7 +15358,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>0</v>
@@ -15612,10 +15394,6 @@
         <f aca="false">C229:C512/D229:D512</f>
         <v>1</v>
       </c>
-      <c r="L229" s="0" t="e">
-        <f aca="false">F229/G229</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M229" s="0" t="n">
         <f aca="false">SUM(H229,I229)</f>
         <v>1</v>
@@ -15623,7 +15401,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>0</v>
@@ -15670,7 +15448,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>0</v>
@@ -15717,7 +15495,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>0</v>
@@ -15764,7 +15542,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>0</v>
@@ -15811,7 +15589,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>1</v>
@@ -15858,7 +15636,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>0</v>
@@ -15894,10 +15672,6 @@
         <f aca="false">C235:C518/D235:D518</f>
         <v>1</v>
       </c>
-      <c r="L235" s="0" t="e">
-        <f aca="false">F235/G235</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M235" s="0" t="n">
         <f aca="false">SUM(H235,I235)</f>
         <v>2</v>
@@ -15905,7 +15679,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>5</v>
@@ -15952,7 +15726,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>0</v>
@@ -15988,10 +15762,6 @@
         <f aca="false">C237:C520/D237:D520</f>
         <v>1</v>
       </c>
-      <c r="L237" s="0" t="e">
-        <f aca="false">F237/G237</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M237" s="0" t="n">
         <f aca="false">SUM(H237,I237)</f>
         <v>2</v>
@@ -15999,7 +15769,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>0</v>
@@ -16046,7 +15816,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>0</v>
@@ -16082,10 +15852,6 @@
         <f aca="false">C239:C522/D239:D522</f>
         <v>1</v>
       </c>
-      <c r="L239" s="0" t="e">
-        <f aca="false">F239/G239</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M239" s="0" t="n">
         <f aca="false">SUM(H239,I239)</f>
         <v>2</v>
@@ -16093,7 +15859,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>0</v>
@@ -16129,10 +15895,6 @@
         <f aca="false">C240:C523/D240:D523</f>
         <v>1</v>
       </c>
-      <c r="L240" s="0" t="e">
-        <f aca="false">F240/G240</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M240" s="0" t="n">
         <f aca="false">SUM(H240,I240)</f>
         <v>6</v>
@@ -16140,7 +15902,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>0</v>
@@ -16187,7 +15949,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>0</v>
@@ -16223,10 +15985,6 @@
         <f aca="false">C242:C525/D242:D525</f>
         <v>1</v>
       </c>
-      <c r="L242" s="0" t="e">
-        <f aca="false">F242/G242</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M242" s="0" t="n">
         <f aca="false">SUM(H242,I242)</f>
         <v>4</v>
@@ -16234,7 +15992,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>0</v>
@@ -16281,7 +16039,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>0</v>
@@ -16328,7 +16086,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>0</v>
@@ -16364,10 +16122,6 @@
         <f aca="false">C245:C528/D245:D528</f>
         <v>1</v>
       </c>
-      <c r="L245" s="0" t="e">
-        <f aca="false">F245/G245</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M245" s="0" t="n">
         <f aca="false">SUM(H245,I245)</f>
         <v>2</v>
@@ -16375,7 +16129,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>2</v>
@@ -16422,7 +16176,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>0</v>
@@ -16469,7 +16223,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>0</v>
@@ -16516,7 +16270,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>0</v>
@@ -16552,10 +16306,6 @@
         <f aca="false">C249:C532/D249:D532</f>
         <v>1</v>
       </c>
-      <c r="L249" s="0" t="e">
-        <f aca="false">F249/G249</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M249" s="0" t="n">
         <f aca="false">SUM(H249,I249)</f>
         <v>2</v>
@@ -16563,7 +16313,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>1</v>
@@ -16599,10 +16349,6 @@
         <f aca="false">C250:C533/D250:D533</f>
         <v>0.75</v>
       </c>
-      <c r="L250" s="0" t="e">
-        <f aca="false">F250/G250</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M250" s="0" t="n">
         <f aca="false">SUM(H250,I250)</f>
         <v>4</v>
@@ -16610,7 +16356,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>0</v>
@@ -16657,7 +16403,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>2</v>
@@ -16693,10 +16439,6 @@
         <f aca="false">C252:C535/D252:D535</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="L252" s="0" t="e">
-        <f aca="false">F252/G252</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M252" s="0" t="n">
         <f aca="false">SUM(H252,I252)</f>
         <v>3</v>
@@ -16704,7 +16446,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>0</v>
@@ -16751,7 +16493,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>0</v>
@@ -16787,10 +16529,6 @@
         <f aca="false">C254:C537/D254:D537</f>
         <v>1</v>
       </c>
-      <c r="L254" s="0" t="e">
-        <f aca="false">F254/G254</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M254" s="0" t="n">
         <f aca="false">SUM(H254,I254)</f>
         <v>1</v>
@@ -16798,7 +16536,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>0</v>
@@ -16834,10 +16572,6 @@
         <f aca="false">C255:C538/D255:D538</f>
         <v>1</v>
       </c>
-      <c r="L255" s="0" t="e">
-        <f aca="false">F255/G255</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M255" s="0" t="n">
         <f aca="false">SUM(H255,I255)</f>
         <v>2</v>
@@ -16845,7 +16579,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>1</v>
@@ -16892,7 +16626,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>0</v>
@@ -16939,7 +16673,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>0</v>
@@ -16986,7 +16720,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>0</v>
@@ -17022,10 +16756,6 @@
         <f aca="false">C259:C542/D259:D542</f>
         <v>1</v>
       </c>
-      <c r="L259" s="0" t="e">
-        <f aca="false">F259/G259</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M259" s="0" t="n">
         <f aca="false">SUM(H259,I259)</f>
         <v>2</v>
@@ -17033,7 +16763,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>0</v>
@@ -17069,10 +16799,6 @@
         <f aca="false">C260:C543/D260:D543</f>
         <v>1</v>
       </c>
-      <c r="L260" s="0" t="e">
-        <f aca="false">F260/G260</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M260" s="0" t="n">
         <f aca="false">SUM(H260,I260)</f>
         <v>16</v>
@@ -17080,7 +16806,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>0</v>
@@ -17127,7 +16853,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>0</v>
@@ -17174,7 +16900,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>0</v>
@@ -17221,7 +16947,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>0</v>
@@ -17257,10 +16983,6 @@
         <f aca="false">C264:C547/D264:D547</f>
         <v>1</v>
       </c>
-      <c r="L264" s="0" t="e">
-        <f aca="false">F264/G264</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M264" s="0" t="n">
         <f aca="false">SUM(H264,I264)</f>
         <v>9</v>
@@ -17268,7 +16990,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>0</v>
@@ -17315,7 +17037,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>0</v>
@@ -17362,7 +17084,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>17</v>
@@ -17409,7 +17131,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>0</v>
@@ -17456,7 +17178,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>5</v>
@@ -17503,7 +17225,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>0</v>
@@ -17539,10 +17261,6 @@
         <f aca="false">C270:C553/D270:D553</f>
         <v>1</v>
       </c>
-      <c r="L270" s="0" t="e">
-        <f aca="false">F270/G270</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M270" s="0" t="n">
         <f aca="false">SUM(H270,I270)</f>
         <v>2</v>
@@ -17550,7 +17268,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>0</v>
@@ -17597,7 +17315,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>1</v>
@@ -17644,7 +17362,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>2</v>
@@ -17680,10 +17398,6 @@
         <f aca="false">C273:C556/D273:D556</f>
         <v>0</v>
       </c>
-      <c r="L273" s="0" t="e">
-        <f aca="false">F273/G273</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M273" s="0" t="n">
         <f aca="false">SUM(H273,I273)</f>
         <v>2</v>
@@ -17691,7 +17405,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>2</v>
@@ -17727,10 +17441,6 @@
         <f aca="false">C274:C557/D274:D557</f>
         <v>0</v>
       </c>
-      <c r="L274" s="0" t="e">
-        <f aca="false">F274/G274</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M274" s="0" t="n">
         <f aca="false">SUM(H274,I274)</f>
         <v>2</v>
@@ -17738,7 +17448,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>0</v>
@@ -17774,10 +17484,6 @@
         <f aca="false">C275:C558/D275:D558</f>
         <v>1</v>
       </c>
-      <c r="L275" s="0" t="e">
-        <f aca="false">F275/G275</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M275" s="0" t="n">
         <f aca="false">SUM(H275,I275)</f>
         <v>4</v>
@@ -17785,7 +17491,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>0</v>
@@ -17821,10 +17527,6 @@
         <f aca="false">C276:C559/D276:D559</f>
         <v>1</v>
       </c>
-      <c r="L276" s="0" t="e">
-        <f aca="false">F276/G276</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M276" s="0" t="n">
         <f aca="false">SUM(H276,I276)</f>
         <v>5</v>
@@ -17832,7 +17534,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>0</v>
@@ -17868,10 +17570,6 @@
         <f aca="false">C277:C560/D277:D560</f>
         <v>1</v>
       </c>
-      <c r="L277" s="0" t="e">
-        <f aca="false">F277/G277</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M277" s="0" t="n">
         <f aca="false">SUM(H277,I277)</f>
         <v>2</v>
@@ -17879,7 +17577,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>0</v>
@@ -17915,10 +17613,6 @@
         <f aca="false">C278:C561/D278:D561</f>
         <v>1</v>
       </c>
-      <c r="L278" s="0" t="e">
-        <f aca="false">F278/G278</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M278" s="0" t="n">
         <f aca="false">SUM(H278,I278)</f>
         <v>4</v>
@@ -17926,7 +17620,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>0</v>
@@ -17973,7 +17667,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>9</v>
@@ -18020,7 +17714,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>0</v>
@@ -18056,10 +17750,6 @@
         <f aca="false">C281:C564/D281:D564</f>
         <v>1</v>
       </c>
-      <c r="L281" s="0" t="e">
-        <f aca="false">F281/G281</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M281" s="0" t="n">
         <f aca="false">SUM(H281,I281)</f>
         <v>4</v>
@@ -18067,7 +17757,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>0</v>
@@ -18103,10 +17793,6 @@
         <f aca="false">C282:C565/D282:D565</f>
         <v>1</v>
       </c>
-      <c r="L282" s="0" t="e">
-        <f aca="false">F282/G282</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="M282" s="0" t="n">
         <f aca="false">SUM(H282,I282)</f>
         <v>3</v>
@@ -18114,7 +17800,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>1</v>
@@ -18161,7 +17847,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>5</v>
@@ -18208,7 +17894,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>7</v>
@@ -18277,4 +17963,3546 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G285"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A2,A2:A190)</f>
+        <v>187.5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B2,B2:B190,1)</f>
+        <v>113.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">PEARSON(D2:D190,E2:E190)</f>
+        <v>0.26503472519437</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A3,A3:A191)</f>
+        <v>187</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B3,B3:B191,1)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A4,A4:A192)</f>
+        <v>186.5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B4,B4:B192,1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A5,A5:A193)</f>
+        <v>186</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B5,B5:B193,1)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.180555555555556</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A6,A6:A194)</f>
+        <v>185</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B6,B6:B194,1)</f>
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A7,A7:A195)</f>
+        <v>183.5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B7,B7:B195,1)</f>
+        <v>174.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A8,A8:A196)</f>
+        <v>183</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B8,B8:B196,1)</f>
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A9,A9:A197)</f>
+        <v>182</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B9,B9:B197,1)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A10,A10:A198)</f>
+        <v>181</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B10,B10:B198,1)</f>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.486577181208054</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A11,A11:A199)</f>
+        <v>180</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B11,B11:B199,1)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A12,A12:A200)</f>
+        <v>178</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B12,B12:B200,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A13,A13:A201)</f>
+        <v>177.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B13,B13:B201,1)</f>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A14,A14:A202)</f>
+        <v>177</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B14,B14:B202,1)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.519230769230769</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A15,A15:A203)</f>
+        <v>176</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B15,B15:B203,1)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0.544554455445545</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A16,A16:A204)</f>
+        <v>175</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B16,B16:B204,1)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A17,A17:A205)</f>
+        <v>174</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B17,B17:B205,1)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A18,A18:A206)</f>
+        <v>173</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B18,B18:B206,1)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A19,A19:A207)</f>
+        <v>172</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B19,B19:B207,1)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A20,A20:A208)</f>
+        <v>171</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B20,B20:B208,1)</f>
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A21,A21:A209)</f>
+        <v>169.5</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B21,B21:B209,1)</f>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A22,A22:A210)</f>
+        <v>169</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B22,B22:B210,1)</f>
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A23,A23:A211)</f>
+        <v>168</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B23,B23:B211,1)</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A24,A24:A212)</f>
+        <v>165.5</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B24,B24:B212,1)</f>
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A25,A25:A213)</f>
+        <v>165</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B25,B25:B213,1)</f>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A26,A26:A214)</f>
+        <v>164.5</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B26,B26:B214,1)</f>
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A27,A27:A215)</f>
+        <v>164</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B27,B27:B215,1)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A28,A28:A216)</f>
+        <v>162.5</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B28,B28:B216,1)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A29,A29:A217)</f>
+        <v>162</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B29,B29:B217,1)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A30,A30:A218)</f>
+        <v>161</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B30,B30:B218,1)</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A31,A31:A219)</f>
+        <v>160</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B31,B31:B219,1)</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>0.782608695652174</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A32,A32:A220)</f>
+        <v>159</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B32,B32:B220,1)</f>
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0.789473684210526</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A33,A33:A221)</f>
+        <v>158</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B33,B33:B221,1)</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A34,A34:A222)</f>
+        <v>156.5</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B34,B34:B222,1)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A35,A35:A223)</f>
+        <v>156</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B35,B35:B223,1)</f>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A36,A36:A224)</f>
+        <v>155</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B36,B36:B224,1)</f>
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A37,A37:A225)</f>
+        <v>152.5</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B37,B37:B225,1)</f>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A38,A38:A226)</f>
+        <v>152</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B38,B38:B226,1)</f>
+        <v>156.5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A39,A39:A227)</f>
+        <v>151.5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B39,B39:B227,1)</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A40,A40:A228)</f>
+        <v>151</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B40,B40:B228,1)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>0.840909090909091</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A41,A41:A229)</f>
+        <v>150</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B41,B41:B229,1)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>0.86046511627907</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A42,A42:A230)</f>
+        <v>149</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B42,B42:B230,1)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>0.865853658536585</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A43,A43:A231)</f>
+        <v>148</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B43,B43:B231,1)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A44,A44:A232)</f>
+        <v>147</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B44,B44:B232,1)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>0.8671875</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A45,A45:A233)</f>
+        <v>146</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B45,B45:B233,1)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A46,A46:A234)</f>
+        <v>145</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B46,B46:B234,1)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A47,A47:A235)</f>
+        <v>142</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B47,B47:B235,1)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A48,A48:A236)</f>
+        <v>141.5</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B48,B48:B236,1)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A49,A49:A237)</f>
+        <v>141</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B49,B49:B237,1)</f>
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A50,A50:A238)</f>
+        <v>140.5</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B50,B50:B238,1)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A51,A51:A239)</f>
+        <v>140</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B51,B51:B239,1)</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A52,A52:A240)</f>
+        <v>138.5</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B52,B52:B240,1)</f>
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A53,A53:A241)</f>
+        <v>138</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B53,B53:B241,1)</f>
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>0.894736842105263</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A54,A54:A242)</f>
+        <v>137</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B54,B54:B242,1)</f>
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A55,A55:A243)</f>
+        <v>135.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B55,B55:B243,1)</f>
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A56,A56:A244)</f>
+        <v>135</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B56,B56:B244,1)</f>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A57,A57:A245)</f>
+        <v>134</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B57,B57:B245,1)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A58,A58:A246)</f>
+        <v>131</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B58,B58:B246,1)</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A59,A59:A247)</f>
+        <v>130.5</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B59,B59:B247,1)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A60,A60:A248)</f>
+        <v>130</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B60,B60:B248,1)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A61,A61:A249)</f>
+        <v>129.5</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B61,B61:B249,1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A62,A62:A250)</f>
+        <v>129</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B62,B62:B250,1)</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A63,A63:A251)</f>
+        <v>128</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B63,B63:B251,1)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A64,A64:A252)</f>
+        <v>125</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B64,B64:B252,1)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A65,A65:A253)</f>
+        <v>124.5</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B65,B65:B253,1)</f>
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A66,A66:A254)</f>
+        <v>124</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B66,B66:B254,1)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A67,A67:A255)</f>
+        <v>123.5</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B67,B67:B255,1)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A68,A68:A256)</f>
+        <v>123</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B68,B68:B256,1)</f>
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>0.931818181818182</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A69,A69:A257)</f>
+        <v>122</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B69,B69:B257,1)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>0.932432432432432</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A70,A70:A258)</f>
+        <v>121</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B70,B70:B258,1)</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A71,A71:A259)</f>
+        <v>120</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B71,B71:B259,1)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>0.942622950819672</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A72,A72:A260)</f>
+        <v>119</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B72,B72:B260,1)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>0.943181818181818</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A73,A73:A261)</f>
+        <v>118</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B73,B73:B261,1)</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>0.946428571428571</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A74,A74:A262)</f>
+        <v>117</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B74,B74:B262,1)</f>
+        <v>179.5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>0.948717948717949</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A75,A75:A263)</f>
+        <v>116</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B75,B75:B263,1)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A76,A76:A264)</f>
+        <v>113</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B76,B76:B264,1)</f>
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A77,A77:A265)</f>
+        <v>112.5</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B77,B77:B265,1)</f>
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A78,A78:A266)</f>
+        <v>112</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B78,B78:B266,1)</f>
+        <v>164.5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A79,A79:A267)</f>
+        <v>111.5</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B79,B79:B267,1)</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A80,A80:A268)</f>
+        <v>111</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B80,B80:B268,1)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A81,A81:A269)</f>
+        <v>110</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B81,B81:B269,1)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>0.954545454545455</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A82,A82:A270)</f>
+        <v>108</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B82,B82:B270,1)</f>
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>0.954545454545455</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A83,A83:A271)</f>
+        <v>107.5</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B83,B83:B271,1)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>0.954545454545455</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A84,A84:A272)</f>
+        <v>107</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B84,B84:B272,1)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>0.957142857142857</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A85,A85:A273)</f>
+        <v>106</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B85,B85:B273,1)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>0.962121212121212</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A86,A86:A274)</f>
+        <v>105</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B86,B86:B274,1)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>0.964285714285714</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A87,A87:A275)</f>
+        <v>104</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B87,B87:B275,1)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A88,A88:A276)</f>
+        <v>103</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B88,B88:B276,1)</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>0.970588235294118</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A89,A89:A277)</f>
+        <v>102</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B89,B89:B277,1)</f>
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A90,A90:A278)</f>
+        <v>100.5</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B90,B90:B278,1)</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A91,A91:A279)</f>
+        <v>100</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B91,B91:B279,1)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>0.977272727272727</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A92,A92:A280)</f>
+        <v>99</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B92,B92:B280,1)</f>
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>0.980769230769231</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A93,A93:A281)</f>
+        <v>98</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B93,B93:B281,1)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>0.982758620689655</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A94,A94:A282)</f>
+        <v>97</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B94,B94:B282,1)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>0.990384615384615</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A95,A95:A283)</f>
+        <v>96</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B95,B95:B283,1)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A96,A96:A284)</f>
+        <v>48</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B96,B96:B284,1)</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A97,A97:A285)</f>
+        <v>47.5</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B97,B97:B285,1)</f>
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A98,A98:A286)</f>
+        <v>47</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B98,B98:B286,1)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A99,A99:A287)</f>
+        <v>46.5</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B99,B99:B287,1)</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A100,A100:A288)</f>
+        <v>46</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B100,B100:B288,1)</f>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A101,A101:A289)</f>
+        <v>45.5</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B101,B101:B289,1)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A102,A102:A290)</f>
+        <v>45</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B102,B102:B290,1)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A103,A103:A291)</f>
+        <v>44.5</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B103,B103:B291,1)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A104,A104:A292)</f>
+        <v>44</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B104,B104:B292,1)</f>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A105,A105:A293)</f>
+        <v>43.5</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B105,B105:B293,1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A106,A106:A294)</f>
+        <v>43</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B106,B106:B294,1)</f>
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A107,A107:A295)</f>
+        <v>42.5</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B107,B107:B295,1)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A108,A108:A296)</f>
+        <v>42</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B108,B108:B296,1)</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A109,A109:A297)</f>
+        <v>41.5</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B109,B109:B297,1)</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A110,A110:A298)</f>
+        <v>41</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B110,B110:B298,1)</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A111,A111:A299)</f>
+        <v>40.5</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B111,B111:B299,1)</f>
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A112,A112:A300)</f>
+        <v>40</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B112,B112:B300,1)</f>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A113,A113:A301)</f>
+        <v>39.5</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B113,B113:B301,1)</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A114,A114:A302)</f>
+        <v>39</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B114,B114:B302,1)</f>
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A115,A115:A303)</f>
+        <v>38.5</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B115,B115:B303,1)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A116,A116:A304)</f>
+        <v>38</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B116,B116:B304,1)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A117,A117:A305)</f>
+        <v>37.5</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B117,B117:B305,1)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A118,A118:A306)</f>
+        <v>37</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B118,B118:B306,1)</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A119,A119:A307)</f>
+        <v>36.5</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B119,B119:B307,1)</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A120,A120:A308)</f>
+        <v>36</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B120,B120:B308,1)</f>
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A121,A121:A309)</f>
+        <v>35.5</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B121,B121:B309,1)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A122,A122:A310)</f>
+        <v>35</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B122,B122:B310,1)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A123,A123:A311)</f>
+        <v>34.5</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B123,B123:B311,1)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A124,A124:A312)</f>
+        <v>34</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B124,B124:B312,1)</f>
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A125,A125:A313)</f>
+        <v>33.5</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B125,B125:B313,1)</f>
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A126,A126:A314)</f>
+        <v>33</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B126,B126:B314,1)</f>
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A127,A127:A315)</f>
+        <v>32.5</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B127,B127:B315,1)</f>
+        <v>143.5</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A128,A128:A316)</f>
+        <v>32</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B128,B128:B316,1)</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A129,A129:A317)</f>
+        <v>31.5</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B129,B129:B317,1)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A130,A130:A318)</f>
+        <v>31</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B130,B130:B318,1)</f>
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A131,A131:A319)</f>
+        <v>30.5</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B131,B131:B319,1)</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A132,A132:A320)</f>
+        <v>30</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B132,B132:B320,1)</f>
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A133,A133:A321)</f>
+        <v>29.5</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B133,B133:B321,1)</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A134,A134:A322)</f>
+        <v>29</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B134,B134:B322,1)</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A135,A135:A323)</f>
+        <v>28.5</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B135,B135:B323,1)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A136,A136:A324)</f>
+        <v>28</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B136,B136:B324,1)</f>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A137,A137:A325)</f>
+        <v>27.5</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B137,B137:B325,1)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A138,A138:A326)</f>
+        <v>27</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B138,B138:B326,1)</f>
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A139,A139:A327)</f>
+        <v>26.5</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B139,B139:B327,1)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A140,A140:A328)</f>
+        <v>26</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B140,B140:B328,1)</f>
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A141,A141:A329)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B141,B141:B329,1)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A142,A142:A330)</f>
+        <v>25</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B142,B142:B330,1)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A143,A143:A331)</f>
+        <v>24.5</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B143,B143:B331,1)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A144,A144:A332)</f>
+        <v>24</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B144,B144:B332,1)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A145,A145:A333)</f>
+        <v>23.5</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B145,B145:B333,1)</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A146,A146:A334)</f>
+        <v>23</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B146,B146:B334,1)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A147,A147:A335)</f>
+        <v>22.5</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B147,B147:B335,1)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A148,A148:A336)</f>
+        <v>22</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B148,B148:B336,1)</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A149,A149:A337)</f>
+        <v>21.5</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B149,B149:B337,1)</f>
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A150,A150:A338)</f>
+        <v>21</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B150,B150:B338,1)</f>
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A151,A151:A339)</f>
+        <v>20.5</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B151,B151:B339,1)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A152,A152:A340)</f>
+        <v>20</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B152,B152:B340,1)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A153,A153:A341)</f>
+        <v>19.5</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B153,B153:B341,1)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A154,A154:A342)</f>
+        <v>19</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B154,B154:B342,1)</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A155,A155:A343)</f>
+        <v>18.5</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B155,B155:B343,1)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A156,A156:A344)</f>
+        <v>18</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B156,B156:B344,1)</f>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A157,A157:A345)</f>
+        <v>17.5</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B157,B157:B345,1)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A158,A158:A346)</f>
+        <v>17</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B158,B158:B346,1)</f>
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A159,A159:A347)</f>
+        <v>16.5</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B159,B159:B347,1)</f>
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A160,A160:A348)</f>
+        <v>16</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B160,B160:B348,1)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A161,A161:A349)</f>
+        <v>15.5</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B161,B161:B349,1)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A162,A162:A350)</f>
+        <v>15</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B162,B162:B350,1)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A163,A163:A351)</f>
+        <v>14.5</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B163,B163:B351,1)</f>
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A164,A164:A352)</f>
+        <v>14</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B164,B164:B352,1)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A165,A165:A353)</f>
+        <v>13.5</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B165,B165:B353,1)</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A166,A166:A354)</f>
+        <v>13</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B166,B166:B354,1)</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A167,A167:A355)</f>
+        <v>12.5</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B167,B167:B355,1)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A168,A168:A356)</f>
+        <v>12</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B168,B168:B356,1)</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A169,A169:A357)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B169,B169:B357,1)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A170,A170:A358)</f>
+        <v>11</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B170,B170:B358,1)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A171,A171:A359)</f>
+        <v>10.5</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B171,B171:B359,1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A172,A172:A360)</f>
+        <v>10</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B172,B172:B360,1)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A173,A173:A361)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B173,B173:B361,1)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A174,A174:A362)</f>
+        <v>9</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B174,B174:B362,1)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A175,A175:A363)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B175,B175:B363,1)</f>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A176,A176:A364)</f>
+        <v>8</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B176,B176:B364,1)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A177,A177:A365)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B177,B177:B365,1)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A178,A178:A366)</f>
+        <v>7</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B178,B178:B366,1)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A179,A179:A367)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B179,B179:B367,1)</f>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A180,A180:A368)</f>
+        <v>6</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B180,B180:B368,1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A181,A181:A369)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B181,B181:B369,1)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A182,A182:A370)</f>
+        <v>5</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B182,B182:B370,1)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A183,A183:A371)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B183,B183:B371,1)</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A184,A184:A372)</f>
+        <v>4</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B184,B184:B372,1)</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A185,A185:A373)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B185,B185:B373,1)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A186,A186:A374)</f>
+        <v>3</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B186,B186:B374,1)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A187,A187:A375)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B187,B187:B375,1)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A188,A188:A376)</f>
+        <v>2</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B188,B188:B376,1)</f>
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A189,A189:A377)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B189,B189:B377,1)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(A190,A190:A378)</f>
+        <v>1</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B190,B190:B378,1)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B276" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>